--- a/biology/Botanique/Prosecco_di_Valdobbiadene_superiore_di_Cartizze_frizzante/Prosecco_di_Valdobbiadene_superiore_di_Cartizze_frizzante.xlsx
+++ b/biology/Botanique/Prosecco_di_Valdobbiadene_superiore_di_Cartizze_frizzante/Prosecco_di_Valdobbiadene_superiore_di_Cartizze_frizzante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prosecco di Valdobbiadene superiore di Cartizze frizzante est un vin effervescent italien, produit dans la région Vénétie, doté d'une appellation DOC depuis le 2 avril 1969. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent rive gauche du Piave en province de Trévise dans les hameaux Saccol, S. Pietro di Barbozza, S. Stefano de la commune de Valdobbiadene.  La superficie plantée en vigne est de 100 ha.
 </t>
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins intense
 odeur : vineux, agréablement parfumé, caractéristique, en version doux très fruité
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :'
  pas de données disponibles </t>
